--- a/PatientCare360/Excel/Users.xlsx
+++ b/PatientCare360/Excel/Users.xlsx
@@ -1,46 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dori6\source\repos\PatientCare360\PatientCare360\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D6A40F-9A61-493E-8A8B-2696B92BA5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr autoCompressPictures="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Full name</t>
-  </si>
-  <si>
-    <t>Password</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+  <si>
+    <t xml:space="preserve">Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dori123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dori@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">316055656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dori12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,25 +73,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,16 +361,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -368,9 +379,34 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="default" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/PatientCare360/Excel/Users.xlsx
+++ b/PatientCare360/Excel/Users.xlsx
@@ -1,52 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr autoCompressPictures="1"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dori6\source\repos\PatientCare360\PatientCare360\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A388559A-4225-4527-B60B-66EB00C497A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
-  <si>
-    <t xml:space="preserve">Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dori123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dori@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">316055656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dori12</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Full name</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>dori123</t>
+  </si>
+  <si>
+    <t>dori@123</t>
+  </si>
+  <si>
+    <t>316055656</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,30 +76,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -361,16 +359,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -381,7 +379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -389,24 +387,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="default" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/PatientCare360/Excel/Users.xlsx
+++ b/PatientCare360/Excel/Users.xlsx
@@ -1,55 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dori6\source\repos\PatientCare360\PatientCare360\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A388559A-4225-4527-B60B-66EB00C497A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr autoCompressPictures="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="162913" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Full name</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>dori123</t>
-  </si>
-  <si>
-    <t>dori@123</t>
-  </si>
-  <si>
-    <t>316055656</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+  <si>
+    <t xml:space="preserve">Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dori123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dori@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">316055656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matan123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matan123@$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">315783522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matan123#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matan123@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dori123%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dori123#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,25 +91,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -359,16 +379,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -379,7 +399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -390,7 +410,53 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="default" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/PatientCare360/Excel/Users.xlsx
+++ b/PatientCare360/Excel/Users.xlsx
@@ -1,55 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dori6\source\repos\PatientCare360\PatientCare360\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A388559A-4225-4527-B60B-66EB00C497A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr autoCompressPictures="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="162913" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Full name</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>dori123</t>
-  </si>
-  <si>
-    <t>dori@123</t>
-  </si>
-  <si>
-    <t>316055656</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t xml:space="preserve">Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dori123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dori@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">316055656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matan123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matan123@$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">315783522</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,25 +79,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -359,16 +367,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -379,7 +387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -389,8 +397,32 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="default" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/PatientCare360/Excel/Users.xlsx
+++ b/PatientCare360/Excel/Users.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr autoCompressPictures="1"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dori6\source\repos\PatientCare360\PatientCare360\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C8765D-CD8B-4EF7-A702-0CB8B3E8E59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -21,38 +27,38 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t xml:space="preserve">Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dori123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dori@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">316055656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matan123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matan123@$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">315783522</t>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>dori123</t>
+  </si>
+  <si>
+    <t>dori@123</t>
+  </si>
+  <si>
+    <t>316055656</t>
+  </si>
+  <si>
+    <t>matan123</t>
+  </si>
+  <si>
+    <t>matan123@$</t>
+  </si>
+  <si>
+    <t>315783522</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,30 +85,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -367,16 +368,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -384,45 +385,32 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-    </row>
-    <row r="5">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="default" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/PatientCare360/Excel/Users.xlsx
+++ b/PatientCare360/Excel/Users.xlsx
@@ -1,64 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dori6\source\repos\PatientCare360\PatientCare360\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C8765D-CD8B-4EF7-A702-0CB8B3E8E59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr autoCompressPictures="1"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="162913" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>dori123</t>
-  </si>
-  <si>
-    <t>dori@123</t>
-  </si>
-  <si>
-    <t>316055656</t>
-  </si>
-  <si>
-    <t>matan123</t>
-  </si>
-  <si>
-    <t>matan123@$</t>
-  </si>
-  <si>
-    <t>315783522</t>
-  </si>
-  <si>
-    <t>ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dori123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dori@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">316055656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matan123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matan123@$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">315783522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lala123#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lala123@</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,25 +88,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -368,16 +376,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -388,7 +396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -399,7 +407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -407,10 +415,35 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="default" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/PatientCare360/Excel/Users.xlsx
+++ b/PatientCare360/Excel/Users.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t xml:space="preserve">lala123@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dori12@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3160@dori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3160556511</t>
   </si>
 </sst>
 </file>
@@ -440,6 +449,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="default" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/PatientCare360/Excel/Users.xlsx
+++ b/PatientCare360/Excel/Users.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t xml:space="preserve">3160556511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dori31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dori311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dori123@</t>
   </si>
 </sst>
 </file>
@@ -460,6 +472,28 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="default" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/PatientCare360/Excel/Users.xlsx
+++ b/PatientCare360/Excel/Users.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -64,6 +64,24 @@
   </si>
   <si>
     <t xml:space="preserve">3160556511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matan123@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nkfv1354@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matanda@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matanda4@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">315783521</t>
   </si>
 </sst>
 </file>
@@ -460,6 +478,28 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="default" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/PatientCare360/Excel/Users.xlsx
+++ b/PatientCare360/Excel/Users.xlsx
@@ -1,88 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr autoCompressPictures="1"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dori6\source\repos\PatientCare360\PatientCare360\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A4547E-4D27-4988-B4E3-71AD014F54DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7270"/>
+    <workbookView xWindow="5760" yWindow="2148" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
-  <si>
-    <t xml:space="preserve">Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dori123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dori@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">316055656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matan123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matan123@$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">315783522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lala123#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lala123@</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dori12@</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3160@dori</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3160556511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dori31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dori311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dori123@</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>dori123</t>
+  </si>
+  <si>
+    <t>dori@123</t>
+  </si>
+  <si>
+    <t>316055656</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,30 +76,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,16 +359,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,10 +376,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -426,78 +388,9 @@
       </c>
       <c r="C2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="default" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>